--- a/Supplemental_Data/Supplemental_Dataset_2.xlsx
+++ b/Supplemental_Data/Supplemental_Dataset_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E0454FE930C574F254D4A2CA59C4F29CA4C78774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_E0454FE930C574F254D4A2CA59C4F29CA4C78774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DE4D9B-CA5D-4C2A-BE03-74D4858E95A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multi_CPH_clinical_covariates_R" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="179">
   <si>
     <t>covariate</t>
   </si>
@@ -571,18 +571,6 @@
   </si>
   <si>
     <t>public_Tumor_blood</t>
-  </si>
-  <si>
-    <t>morisita_Blood</t>
-  </si>
-  <si>
-    <t>morisita_Blood_blood</t>
-  </si>
-  <si>
-    <t>morisita_Tumor</t>
-  </si>
-  <si>
-    <t>morisita_Tumor_blood</t>
   </si>
   <si>
     <t>Primary</t>
@@ -953,9 +941,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:G44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -2677,11 +2670,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
@@ -3165,1198 +3163,922 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22">
+        <v>0.8987928471910005</v>
+      </c>
+      <c r="C22">
+        <v>0.79253733539131299</v>
+      </c>
+      <c r="D22">
+        <v>1.019294039646526</v>
+      </c>
+      <c r="E22">
+        <v>9.6461321533408501E-2</v>
+      </c>
+      <c r="F22">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
         <v>177</v>
-      </c>
-      <c r="B22">
-        <v>1.029103945581652</v>
-      </c>
-      <c r="C22">
-        <v>0.80375161166019415</v>
-      </c>
-      <c r="D22">
-        <v>1.3176395735296711</v>
-      </c>
-      <c r="E22">
-        <v>0.8200319799360738</v>
-      </c>
-      <c r="F22">
-        <v>211</v>
-      </c>
-      <c r="G22" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B23">
-        <v>1.0425588193820039</v>
+        <v>0.87277659059190182</v>
       </c>
       <c r="C23">
-        <v>0.94264634507003964</v>
+        <v>0.74461035274736653</v>
       </c>
       <c r="D23">
-        <v>1.1530611639834421</v>
+        <v>1.0230034732590789</v>
       </c>
       <c r="E23">
-        <v>0.4174475004840163</v>
+        <v>9.3094306541789296E-2</v>
       </c>
       <c r="F23">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B24">
-        <v>1.036645947053922</v>
+        <v>0.93602462855093516</v>
       </c>
       <c r="C24">
-        <v>0.86601763259109044</v>
+        <v>0.80903774879411716</v>
       </c>
       <c r="D24">
-        <v>1.2408925397142989</v>
+        <v>1.082943418350774</v>
       </c>
       <c r="E24">
-        <v>0.69488350122014353</v>
+        <v>0.37412389679511387</v>
       </c>
       <c r="F24">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B25">
-        <v>1.1497024182061311</v>
+        <v>0.89761771912162391</v>
       </c>
       <c r="C25">
-        <v>1.0476239287246161</v>
+        <v>0.78701302335585299</v>
       </c>
       <c r="D25">
-        <v>1.2617272421776491</v>
+        <v>1.0237665016590149</v>
       </c>
       <c r="E25">
-        <v>3.2747884731939999E-3</v>
+        <v>0.1074252238806748</v>
       </c>
       <c r="F25">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B26">
-        <v>0.8987928471910005</v>
+        <v>1.3758289144714131</v>
       </c>
       <c r="C26">
-        <v>0.79253733539131299</v>
+        <v>4.47881592275131E-2</v>
       </c>
       <c r="D26">
-        <v>1.019294039646526</v>
+        <v>42.263518629557367</v>
       </c>
       <c r="E26">
-        <v>9.6461321533408501E-2</v>
+        <v>0.85512146779294129</v>
       </c>
       <c r="F26">
         <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B27">
-        <v>0.87277659059190182</v>
+        <v>1.0628259649295739</v>
       </c>
       <c r="C27">
-        <v>0.74461035274736653</v>
+        <v>0.92644286147698918</v>
       </c>
       <c r="D27">
-        <v>1.0230034732590789</v>
+        <v>1.219286238470882</v>
       </c>
       <c r="E27">
-        <v>9.3094306541789296E-2</v>
+        <v>0.38452939263387259</v>
       </c>
       <c r="F27">
         <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B28">
-        <v>0.93602462855093516</v>
+        <v>1.002902541947513</v>
       </c>
       <c r="C28">
-        <v>0.80903774879411716</v>
+        <v>0.99249165503857761</v>
       </c>
       <c r="D28">
-        <v>1.082943418350774</v>
+        <v>1.0134226353829521</v>
       </c>
       <c r="E28">
-        <v>0.37412389679511387</v>
+        <v>0.5861783187869245</v>
       </c>
       <c r="F28">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B29">
-        <v>0.89761771912162391</v>
+        <v>0.87230790568869521</v>
       </c>
       <c r="C29">
-        <v>0.78701302335585299</v>
+        <v>0.71200893370480678</v>
       </c>
       <c r="D29">
-        <v>1.0237665016590149</v>
+        <v>1.0686959760008701</v>
       </c>
       <c r="E29">
-        <v>0.1074252238806748</v>
+        <v>0.18728340063375171</v>
       </c>
       <c r="F29">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B30">
-        <v>1.3758289144714131</v>
+        <v>1.048666937783201</v>
       </c>
       <c r="C30">
-        <v>4.47881592275131E-2</v>
+        <v>0.96137877168233044</v>
       </c>
       <c r="D30">
-        <v>42.263518629557367</v>
+        <v>1.1438804129981059</v>
       </c>
       <c r="E30">
-        <v>0.85512146779294129</v>
+        <v>0.28385859571990069</v>
       </c>
       <c r="F30">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B31">
-        <v>1.0628259649295739</v>
+        <v>1.0012568857759261</v>
       </c>
       <c r="C31">
-        <v>0.92644286147698918</v>
+        <v>0.90068415035380534</v>
       </c>
       <c r="D31">
-        <v>1.219286238470882</v>
+        <v>1.1130598344823761</v>
       </c>
       <c r="E31">
-        <v>0.38452939263387259</v>
+        <v>0.9814453170437144</v>
       </c>
       <c r="F31">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B32">
-        <v>1.002902541947513</v>
+        <v>1.021186150796846</v>
       </c>
       <c r="C32">
-        <v>0.99249165503857761</v>
+        <v>0.93844168885883361</v>
       </c>
       <c r="D32">
-        <v>1.0134226353829521</v>
+        <v>1.1112263734227039</v>
       </c>
       <c r="E32">
-        <v>0.5861783187869245</v>
+        <v>0.62676889845397243</v>
       </c>
       <c r="F32">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B33">
-        <v>0.87230790568869521</v>
+        <v>0.44062744790418668</v>
       </c>
       <c r="C33">
-        <v>0.71200893370480678</v>
+        <v>5.1011563537880202E-2</v>
       </c>
       <c r="D33">
-        <v>1.0686959760008701</v>
+        <v>3.8060497342408031</v>
       </c>
       <c r="E33">
-        <v>0.18728340063375171</v>
+        <v>0.45628025495175079</v>
       </c>
       <c r="F33">
         <v>192</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B34">
-        <v>1.048666937783201</v>
+        <v>0.8882524839996504</v>
       </c>
       <c r="C34">
-        <v>0.96137877168233044</v>
+        <v>0.75857155731770376</v>
       </c>
       <c r="D34">
-        <v>1.1438804129981059</v>
+        <v>1.0401028982966529</v>
       </c>
       <c r="E34">
-        <v>0.28385859571990069</v>
+        <v>0.1411152818762211</v>
       </c>
       <c r="F34">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B35">
-        <v>1.0012568857759261</v>
+        <v>0.67610030958608747</v>
       </c>
       <c r="C35">
-        <v>0.90068415035380534</v>
+        <v>0.43639391440511027</v>
       </c>
       <c r="D35">
-        <v>1.1130598344823761</v>
+        <v>1.0474748009388151</v>
       </c>
       <c r="E35">
-        <v>0.9814453170437144</v>
+        <v>7.97195579133919E-2</v>
       </c>
       <c r="F35">
         <v>192</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B36">
-        <v>1.021186150796846</v>
+        <v>0.85263553708967299</v>
       </c>
       <c r="C36">
-        <v>0.93844168885883361</v>
+        <v>0.67498336498622935</v>
       </c>
       <c r="D36">
-        <v>1.1112263734227039</v>
+        <v>1.0770448529839349</v>
       </c>
       <c r="E36">
-        <v>0.62676889845397243</v>
+        <v>0.18110906563983989</v>
       </c>
       <c r="F36">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B37">
-        <v>0.44062744790418668</v>
+        <v>0.3020386132791309</v>
       </c>
       <c r="C37">
-        <v>5.1011563537880202E-2</v>
+        <v>9.9720260785397905E-2</v>
       </c>
       <c r="D37">
-        <v>3.8060497342408031</v>
+        <v>0.91483238404184741</v>
       </c>
       <c r="E37">
-        <v>0.45628025495175079</v>
+        <v>3.42261694157832E-2</v>
       </c>
       <c r="F37">
         <v>192</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B38">
-        <v>0.8882524839996504</v>
+        <v>0.89584964289607893</v>
       </c>
       <c r="C38">
-        <v>0.75857155731770376</v>
+        <v>0.78489843924533342</v>
       </c>
       <c r="D38">
-        <v>1.0401028982966529</v>
+        <v>1.0224846203652369</v>
       </c>
       <c r="E38">
-        <v>0.1411152818762211</v>
+        <v>0.103027426182555</v>
       </c>
       <c r="F38">
         <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B39">
-        <v>0.67610030958608747</v>
+        <v>0.84617733275853135</v>
       </c>
       <c r="C39">
-        <v>0.43639391440511027</v>
+        <v>0.66969455305621939</v>
       </c>
       <c r="D39">
-        <v>1.0474748009388151</v>
+        <v>1.0691681382306759</v>
       </c>
       <c r="E39">
-        <v>7.97195579133919E-2</v>
+        <v>0.1616471943137916</v>
       </c>
       <c r="F39">
         <v>192</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B40">
-        <v>0.85263553708967299</v>
+        <v>0.89007767873828347</v>
       </c>
       <c r="C40">
-        <v>0.67498336498622935</v>
+        <v>0.77646624844752232</v>
       </c>
       <c r="D40">
-        <v>1.0770448529839349</v>
+        <v>1.0203125709226171</v>
       </c>
       <c r="E40">
-        <v>0.18110906563983989</v>
+        <v>9.46541770292149E-2</v>
       </c>
       <c r="F40">
         <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B41">
-        <v>0.3020386132791309</v>
+        <v>0.83865402090074181</v>
       </c>
       <c r="C41">
-        <v>9.9720260785397905E-2</v>
+        <v>0.65742622584577026</v>
       </c>
       <c r="D41">
-        <v>0.91483238404184741</v>
+        <v>1.0698395335052899</v>
       </c>
       <c r="E41">
-        <v>3.42261694157832E-2</v>
+        <v>0.1566288291814259</v>
       </c>
       <c r="F41">
         <v>192</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B42">
-        <v>0.89584964289607893</v>
+        <v>0.80625963740826145</v>
       </c>
       <c r="C42">
-        <v>0.78489843924533342</v>
+        <v>0.58711014929796745</v>
       </c>
       <c r="D42">
-        <v>1.0224846203652369</v>
+        <v>1.1072106378862629</v>
       </c>
       <c r="E42">
-        <v>0.103027426182555</v>
+        <v>0.18330023630076719</v>
       </c>
       <c r="F42">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B43">
-        <v>0.84617733275853135</v>
+        <v>0.8036537583114941</v>
       </c>
       <c r="C43">
-        <v>0.66969455305621939</v>
+        <v>0.5396645507487593</v>
       </c>
       <c r="D43">
-        <v>1.0691681382306759</v>
+        <v>1.196779299941213</v>
       </c>
       <c r="E43">
-        <v>0.1616471943137916</v>
+        <v>0.28199846827837211</v>
       </c>
       <c r="F43">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B44">
-        <v>0.89007767873828347</v>
+        <v>0.77447415828754085</v>
       </c>
       <c r="C44">
-        <v>0.77646624844752232</v>
+        <v>0.55408466352358621</v>
       </c>
       <c r="D44">
-        <v>1.0203125709226171</v>
+        <v>1.082524497322894</v>
       </c>
       <c r="E44">
-        <v>9.46541770292149E-2</v>
+        <v>0.13469319240518851</v>
       </c>
       <c r="F44">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B45">
-        <v>0.83865402090074181</v>
+        <v>0.75058481171999769</v>
       </c>
       <c r="C45">
-        <v>0.65742622584577026</v>
+        <v>0.509772151923789</v>
       </c>
       <c r="D45">
-        <v>1.0698395335052899</v>
+        <v>1.105155621896289</v>
       </c>
       <c r="E45">
-        <v>0.1566288291814259</v>
+        <v>0.14610221643325241</v>
       </c>
       <c r="F45">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B46">
-        <v>0.94813707070402442</v>
+        <v>5.4204372081523671</v>
       </c>
       <c r="C46">
-        <v>0.71679579086874501</v>
+        <v>2.5855570378169689E-5</v>
       </c>
       <c r="D46">
-        <v>1.2541422763569501</v>
+        <v>1136356.2705361799</v>
       </c>
       <c r="E46">
-        <v>0.70901776889405466</v>
+        <v>0.78688830569027091</v>
       </c>
       <c r="F46">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47">
+        <v>1.003995275906437</v>
+      </c>
+      <c r="C47">
+        <v>0.75733952406916938</v>
+      </c>
+      <c r="D47">
+        <v>1.330983636805914</v>
+      </c>
+      <c r="E47">
+        <v>0.97788583887860725</v>
+      </c>
+      <c r="F47">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
         <v>178</v>
-      </c>
-      <c r="B47">
-        <v>1.021868608147994</v>
-      </c>
-      <c r="C47">
-        <v>0.90376090198426418</v>
-      </c>
-      <c r="D47">
-        <v>1.155411182344442</v>
-      </c>
-      <c r="E47">
-        <v>0.72993716734091052</v>
-      </c>
-      <c r="F47">
-        <v>192</v>
-      </c>
-      <c r="G47" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B48">
-        <v>1.0430026145889211</v>
+        <v>0.98330177534577456</v>
       </c>
       <c r="C48">
-        <v>0.85223938587130332</v>
+        <v>0.93992753770311277</v>
       </c>
       <c r="D48">
-        <v>1.2764658288200741</v>
+        <v>1.028677576317115</v>
       </c>
       <c r="E48">
-        <v>0.68287693433702501</v>
+        <v>0.4644212614709311</v>
       </c>
       <c r="F48">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B49">
-        <v>1.0452342630895639</v>
+        <v>0.97817637860381124</v>
       </c>
       <c r="C49">
-        <v>0.9221470799648428</v>
+        <v>0.72196824319743269</v>
       </c>
       <c r="D49">
-        <v>1.1847509887230101</v>
+        <v>1.3253062536669049</v>
       </c>
       <c r="E49">
-        <v>0.48889190782510472</v>
+        <v>0.88676663084316132</v>
       </c>
       <c r="F49">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B50">
-        <v>0.80625963740826145</v>
+        <v>1.1054866073473959</v>
       </c>
       <c r="C50">
-        <v>0.58711014929796745</v>
+        <v>0.96565197145476622</v>
       </c>
       <c r="D50">
-        <v>1.1072106378862629</v>
+        <v>1.2655704903531091</v>
       </c>
       <c r="E50">
-        <v>0.18330023630076719</v>
+        <v>0.14610831854393891</v>
       </c>
       <c r="F50">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B51">
-        <v>0.8036537583114941</v>
+        <v>1.05362576437918</v>
       </c>
       <c r="C51">
-        <v>0.5396645507487593</v>
+        <v>0.8920629280267528</v>
       </c>
       <c r="D51">
-        <v>1.196779299941213</v>
+        <v>1.244449484992296</v>
       </c>
       <c r="E51">
-        <v>0.28199846827837211</v>
+        <v>0.53850361932845492</v>
       </c>
       <c r="F51">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B52">
-        <v>0.77447415828754085</v>
+        <v>1.0954294867435399</v>
       </c>
       <c r="C52">
-        <v>0.55408466352358621</v>
+        <v>0.95839666818614044</v>
       </c>
       <c r="D52">
-        <v>1.082524497322894</v>
+        <v>1.252055438275123</v>
       </c>
       <c r="E52">
-        <v>0.13469319240518851</v>
+        <v>0.1813028938470933</v>
       </c>
       <c r="F52">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B53">
-        <v>0.75058481171999769</v>
+        <v>0.2045391451074289</v>
       </c>
       <c r="C53">
-        <v>0.509772151923789</v>
+        <v>6.1488847574656001E-3</v>
       </c>
       <c r="D53">
-        <v>1.105155621896289</v>
+        <v>6.8038780252765019</v>
       </c>
       <c r="E53">
-        <v>0.14610221643325241</v>
+        <v>0.37477580944437838</v>
       </c>
       <c r="F53">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B54">
-        <v>5.4204372081523671</v>
+        <v>0.77459294190307837</v>
       </c>
       <c r="C54">
-        <v>2.5855570378169689E-5</v>
+        <v>0.51938810635545929</v>
       </c>
       <c r="D54">
-        <v>1136356.2705361799</v>
+        <v>1.1551943879813089</v>
       </c>
       <c r="E54">
-        <v>0.78688830569027091</v>
+        <v>0.21038562416039311</v>
       </c>
       <c r="F54">
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B55">
-        <v>1.003995275906437</v>
+        <v>0.96853757717700883</v>
       </c>
       <c r="C55">
-        <v>0.75733952406916938</v>
+        <v>0.46433748868514868</v>
       </c>
       <c r="D55">
-        <v>1.330983636805914</v>
+        <v>2.0202224917488412</v>
       </c>
       <c r="E55">
-        <v>0.97788583887860725</v>
+        <v>0.93208167307563039</v>
       </c>
       <c r="F55">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B56">
-        <v>0.98330177534577456</v>
+        <v>0.65002055498682143</v>
       </c>
       <c r="C56">
-        <v>0.93992753770311277</v>
+        <v>0.33250658929160543</v>
       </c>
       <c r="D56">
-        <v>1.028677576317115</v>
+        <v>1.270731875736824</v>
       </c>
       <c r="E56">
-        <v>0.4644212614709311</v>
+        <v>0.20787221059255889</v>
       </c>
       <c r="F56">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B57">
-        <v>0.97817637860381124</v>
+        <v>0.94856935516643082</v>
       </c>
       <c r="C57">
-        <v>0.72196824319743269</v>
+        <v>0.13942827557329579</v>
       </c>
       <c r="D57">
-        <v>1.3253062536669049</v>
+        <v>6.4533812661826433</v>
       </c>
       <c r="E57">
-        <v>0.88676663084316132</v>
+        <v>0.95695719588955042</v>
       </c>
       <c r="F57">
         <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B58">
-        <v>1.1054866073473959</v>
+        <v>0.78308925444986299</v>
       </c>
       <c r="C58">
-        <v>0.96565197145476622</v>
+        <v>0.55967774128735226</v>
       </c>
       <c r="D58">
-        <v>1.2655704903531091</v>
+        <v>1.0956819169265399</v>
       </c>
       <c r="E58">
-        <v>0.14610831854393891</v>
+        <v>0.15364906874496639</v>
       </c>
       <c r="F58">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B59">
-        <v>1.05362576437918</v>
+        <v>0.96815651358352395</v>
       </c>
       <c r="C59">
-        <v>0.8920629280267528</v>
+        <v>0.67785675886095487</v>
       </c>
       <c r="D59">
-        <v>1.244449484992296</v>
+        <v>1.382780392083504</v>
       </c>
       <c r="E59">
-        <v>0.53850361932845492</v>
+        <v>0.8587716097093776</v>
       </c>
       <c r="F59">
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B60">
-        <v>1.0954294867435399</v>
+        <v>0.76060558928941846</v>
       </c>
       <c r="C60">
-        <v>0.95839666818614044</v>
+        <v>0.53072161175352683</v>
       </c>
       <c r="D60">
-        <v>1.252055438275123</v>
+        <v>1.0900646396268769</v>
       </c>
       <c r="E60">
-        <v>0.1813028938470933</v>
+        <v>0.1361453625775412</v>
       </c>
       <c r="F60">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B61">
-        <v>0.2045391451074289</v>
+        <v>0.94636237413467916</v>
       </c>
       <c r="C61">
-        <v>6.1488847574656001E-3</v>
+        <v>0.64923451977103652</v>
       </c>
       <c r="D61">
-        <v>6.8038780252765019</v>
+        <v>1.3794733888975521</v>
       </c>
       <c r="E61">
-        <v>0.37477580944437838</v>
+        <v>0.7743122298105487</v>
       </c>
       <c r="F61">
         <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62">
-        <v>0.77459294190307837</v>
-      </c>
-      <c r="C62">
-        <v>0.51938810635545929</v>
-      </c>
-      <c r="D62">
-        <v>1.1551943879813089</v>
-      </c>
-      <c r="E62">
-        <v>0.21038562416039311</v>
-      </c>
-      <c r="F62">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63">
-        <v>0.96853757717700883</v>
-      </c>
-      <c r="C63">
-        <v>0.46433748868514868</v>
-      </c>
-      <c r="D63">
-        <v>2.0202224917488412</v>
-      </c>
-      <c r="E63">
-        <v>0.93208167307563039</v>
-      </c>
-      <c r="F63">
-        <v>58</v>
-      </c>
-      <c r="G63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64">
-        <v>0.65002055498682143</v>
-      </c>
-      <c r="C64">
-        <v>0.33250658929160543</v>
-      </c>
-      <c r="D64">
-        <v>1.270731875736824</v>
-      </c>
-      <c r="E64">
-        <v>0.20787221059255889</v>
-      </c>
-      <c r="F64">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65">
-        <v>0.94856935516643082</v>
-      </c>
-      <c r="C65">
-        <v>0.13942827557329579</v>
-      </c>
-      <c r="D65">
-        <v>6.4533812661826433</v>
-      </c>
-      <c r="E65">
-        <v>0.95695719588955042</v>
-      </c>
-      <c r="F65">
-        <v>58</v>
-      </c>
-      <c r="G65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66">
-        <v>0.78308925444986299</v>
-      </c>
-      <c r="C66">
-        <v>0.55967774128735226</v>
-      </c>
-      <c r="D66">
-        <v>1.0956819169265399</v>
-      </c>
-      <c r="E66">
-        <v>0.15364906874496639</v>
-      </c>
-      <c r="F66">
-        <v>42</v>
-      </c>
-      <c r="G66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67">
-        <v>0.96815651358352395</v>
-      </c>
-      <c r="C67">
-        <v>0.67785675886095487</v>
-      </c>
-      <c r="D67">
-        <v>1.382780392083504</v>
-      </c>
-      <c r="E67">
-        <v>0.8587716097093776</v>
-      </c>
-      <c r="F67">
-        <v>58</v>
-      </c>
-      <c r="G67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B68">
-        <v>0.76060558928941846</v>
-      </c>
-      <c r="C68">
-        <v>0.53072161175352683</v>
-      </c>
-      <c r="D68">
-        <v>1.0900646396268769</v>
-      </c>
-      <c r="E68">
-        <v>0.1361453625775412</v>
-      </c>
-      <c r="F68">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69">
-        <v>0.94636237413467916</v>
-      </c>
-      <c r="C69">
-        <v>0.64923451977103652</v>
-      </c>
-      <c r="D69">
-        <v>1.3794733888975521</v>
-      </c>
-      <c r="E69">
-        <v>0.7743122298105487</v>
-      </c>
-      <c r="F69">
-        <v>58</v>
-      </c>
-      <c r="G69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B70">
-        <v>0.77109061175578131</v>
-      </c>
-      <c r="C70">
-        <v>0.46896313630107211</v>
-      </c>
-      <c r="D70">
-        <v>1.2678624086055821</v>
-      </c>
-      <c r="E70">
-        <v>0.30557419659059348</v>
-      </c>
-      <c r="F70">
-        <v>42</v>
-      </c>
-      <c r="G70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B71">
-        <v>1.072157956865659</v>
-      </c>
-      <c r="C71">
-        <v>0.89072111728788494</v>
-      </c>
-      <c r="D71">
-        <v>1.290552858980679</v>
-      </c>
-      <c r="E71">
-        <v>0.46138629653552249</v>
-      </c>
-      <c r="F71">
-        <v>58</v>
-      </c>
-      <c r="G71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72">
-        <v>0.75306402505799463</v>
-      </c>
-      <c r="C72">
-        <v>0.48591497655003019</v>
-      </c>
-      <c r="D72">
-        <v>1.1670877688581771</v>
-      </c>
-      <c r="E72">
-        <v>0.20453413537009429</v>
-      </c>
-      <c r="F72">
-        <v>42</v>
-      </c>
-      <c r="G72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73">
-        <v>1.068001579939146</v>
-      </c>
-      <c r="C73">
-        <v>0.911839703817938</v>
-      </c>
-      <c r="D73">
-        <v>1.2509077746632691</v>
-      </c>
-      <c r="E73">
-        <v>0.41467748972105789</v>
-      </c>
-      <c r="F73">
-        <v>58</v>
-      </c>
-      <c r="G73" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -11522,9 +11244,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -13708,9 +13435,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -16272,11 +16004,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
@@ -16760,646 +16497,462 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22">
+        <v>0.82921996953363986</v>
+      </c>
+      <c r="C22">
+        <v>0.71319231471155331</v>
+      </c>
+      <c r="D22">
+        <v>0.96412390275331117</v>
+      </c>
+      <c r="E22">
+        <v>1.4890712679057699E-2</v>
+      </c>
+      <c r="F22">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
         <v>177</v>
-      </c>
-      <c r="B22">
-        <v>0.99919560395513018</v>
-      </c>
-      <c r="C22">
-        <v>0.7520379541399167</v>
-      </c>
-      <c r="D22">
-        <v>1.3275817390162019</v>
-      </c>
-      <c r="E22">
-        <v>0.9955714466502128</v>
-      </c>
-      <c r="F22">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B23">
-        <v>0.98962884873903656</v>
+        <v>0.96747248433606803</v>
       </c>
       <c r="C23">
-        <v>0.86704106007797443</v>
+        <v>0.77504092402954661</v>
       </c>
       <c r="D23">
-        <v>1.1295488799209521</v>
+        <v>1.2076820448151211</v>
       </c>
       <c r="E23">
-        <v>0.87720607358731917</v>
+        <v>0.7700953223897512</v>
       </c>
       <c r="F23">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B24">
-        <v>1.0763586966594909</v>
+        <v>0.96230210392828719</v>
       </c>
       <c r="C24">
-        <v>0.89690311377689669</v>
+        <v>0.83772112282442524</v>
       </c>
       <c r="D24">
-        <v>1.2917203944089599</v>
+        <v>1.10541003920572</v>
       </c>
       <c r="E24">
-        <v>0.42910368057800918</v>
+        <v>0.58697102212348762</v>
       </c>
       <c r="F24">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B25">
-        <v>1.005352575580359</v>
+        <v>0.92237117145258063</v>
       </c>
       <c r="C25">
-        <v>0.87745012844770975</v>
+        <v>0.79659551353388081</v>
       </c>
       <c r="D25">
-        <v>1.151898858359214</v>
+        <v>1.068005736252017</v>
       </c>
       <c r="E25">
-        <v>0.93870994068540636</v>
+        <v>0.27998672988246309</v>
       </c>
       <c r="F25">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B26">
-        <v>0.82921996953363986</v>
+        <v>0.1284222875022234</v>
       </c>
       <c r="C26">
-        <v>0.71319231471155331</v>
+        <v>4.6019251944566996E-3</v>
       </c>
       <c r="D26">
-        <v>0.96412390275331117</v>
+        <v>3.5837792294341582</v>
       </c>
       <c r="E26">
-        <v>1.4890712679057699E-2</v>
+        <v>0.22688072638510209</v>
       </c>
       <c r="F26">
         <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B27">
-        <v>0.96747248433606803</v>
+        <v>1.095599978673703</v>
       </c>
       <c r="C27">
-        <v>0.77504092402954661</v>
+        <v>0.95797113271935364</v>
       </c>
       <c r="D27">
-        <v>1.2076820448151211</v>
+        <v>1.253001549078484</v>
       </c>
       <c r="E27">
-        <v>0.7700953223897512</v>
+        <v>0.1825139922424614</v>
       </c>
       <c r="F27">
         <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B28">
-        <v>0.96230210392828719</v>
+        <v>0.99373249069152081</v>
       </c>
       <c r="C28">
-        <v>0.83772112282442524</v>
+        <v>0.98309601490966059</v>
       </c>
       <c r="D28">
-        <v>1.10541003920572</v>
+        <v>1.004484046399799</v>
       </c>
       <c r="E28">
-        <v>0.58697102212348762</v>
+        <v>0.25216636330234021</v>
       </c>
       <c r="F28">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B29">
-        <v>0.92237117145258063</v>
+        <v>0.98415018673903643</v>
       </c>
       <c r="C29">
-        <v>0.79659551353388081</v>
+        <v>0.79083720232693155</v>
       </c>
       <c r="D29">
-        <v>1.068005736252017</v>
+        <v>1.2247167776233181</v>
       </c>
       <c r="E29">
-        <v>0.27998672988246309</v>
+        <v>0.88613947441097196</v>
       </c>
       <c r="F29">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B30">
-        <v>0.1284222875022234</v>
+        <v>0.95549716598432555</v>
       </c>
       <c r="C30">
-        <v>4.6019251944566996E-3</v>
+        <v>0.86095101469500857</v>
       </c>
       <c r="D30">
-        <v>3.5837792294341582</v>
+        <v>1.0604259924445281</v>
       </c>
       <c r="E30">
-        <v>0.22688072638510209</v>
+        <v>0.39181646860416869</v>
       </c>
       <c r="F30">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B31">
-        <v>1.095599978673703</v>
+        <v>0.97535601711247344</v>
       </c>
       <c r="C31">
-        <v>0.95797113271935364</v>
+        <v>0.86938131091930082</v>
       </c>
       <c r="D31">
-        <v>1.253001549078484</v>
+        <v>1.094248689463504</v>
       </c>
       <c r="E31">
-        <v>0.1825139922424614</v>
+        <v>0.67069318945649936</v>
       </c>
       <c r="F31">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B32">
-        <v>0.99373249069152081</v>
+        <v>0.96181922196233838</v>
       </c>
       <c r="C32">
-        <v>0.98309601490966059</v>
+        <v>0.87679431042398581</v>
       </c>
       <c r="D32">
-        <v>1.004484046399799</v>
+        <v>1.055089209336789</v>
       </c>
       <c r="E32">
-        <v>0.25216636330234021</v>
+        <v>0.40972834521226748</v>
       </c>
       <c r="F32">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B33">
-        <v>0.98415018673903643</v>
+        <v>1.740295121666716</v>
       </c>
       <c r="C33">
-        <v>0.79083720232693155</v>
+        <v>0.1667310066339153</v>
       </c>
       <c r="D33">
-        <v>1.2247167776233181</v>
+        <v>18.16475034632764</v>
       </c>
       <c r="E33">
-        <v>0.88613947441097196</v>
+        <v>0.64336619694167596</v>
       </c>
       <c r="F33">
         <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B34">
-        <v>0.95549716598432555</v>
+        <v>0.80208050892524851</v>
       </c>
       <c r="C34">
-        <v>0.86095101469500857</v>
+        <v>0.6708797986345747</v>
       </c>
       <c r="D34">
-        <v>1.0604259924445281</v>
+        <v>0.95893950616361656</v>
       </c>
       <c r="E34">
-        <v>0.39181646860416869</v>
+        <v>1.55193611922848E-2</v>
       </c>
       <c r="F34">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B35">
-        <v>0.97535601711247344</v>
+        <v>0.89779649624572722</v>
       </c>
       <c r="C35">
-        <v>0.86938131091930082</v>
+        <v>0.53218576253261851</v>
       </c>
       <c r="D35">
-        <v>1.094248689463504</v>
+        <v>1.5145811959253619</v>
       </c>
       <c r="E35">
-        <v>0.67069318945649936</v>
+        <v>0.68616319031525896</v>
       </c>
       <c r="F35">
         <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B36">
-        <v>0.96181922196233838</v>
+        <v>0.74028271058017625</v>
       </c>
       <c r="C36">
-        <v>0.87679431042398581</v>
+        <v>0.57042670580991583</v>
       </c>
       <c r="D36">
-        <v>1.055089209336789</v>
+        <v>0.96071675116583721</v>
       </c>
       <c r="E36">
-        <v>0.40972834521226748</v>
+        <v>2.3739647383711399E-2</v>
       </c>
       <c r="F36">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B37">
-        <v>1.740295121666716</v>
+        <v>0.3787848119969881</v>
       </c>
       <c r="C37">
-        <v>0.1667310066339153</v>
+        <v>8.9211144907945197E-2</v>
       </c>
       <c r="D37">
-        <v>18.16475034632764</v>
+        <v>1.6082960704925939</v>
       </c>
       <c r="E37">
-        <v>0.64336619694167596</v>
+        <v>0.1882155473931415</v>
       </c>
       <c r="F37">
         <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B38">
-        <v>0.80208050892524851</v>
+        <v>0.82301818520133707</v>
       </c>
       <c r="C38">
-        <v>0.6708797986345747</v>
+        <v>0.70499252037649918</v>
       </c>
       <c r="D38">
-        <v>0.95893950616361656</v>
+        <v>0.96080300654872319</v>
       </c>
       <c r="E38">
-        <v>1.55193611922848E-2</v>
+        <v>1.36530308631188E-2</v>
       </c>
       <c r="F38">
         <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B39">
-        <v>0.89779649624572722</v>
+        <v>0.9730398859226812</v>
       </c>
       <c r="C39">
-        <v>0.53218576253261851</v>
+        <v>0.75512178268204511</v>
       </c>
       <c r="D39">
-        <v>1.5145811959253619</v>
+        <v>1.253846255412673</v>
       </c>
       <c r="E39">
-        <v>0.68616319031525896</v>
+        <v>0.8326779875473338</v>
       </c>
       <c r="F39">
         <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B40">
-        <v>0.74028271058017625</v>
+        <v>0.8212828236248837</v>
       </c>
       <c r="C40">
-        <v>0.57042670580991583</v>
+        <v>0.70195424075999979</v>
       </c>
       <c r="D40">
-        <v>0.96071675116583721</v>
+        <v>0.96089664712471923</v>
       </c>
       <c r="E40">
-        <v>2.3739647383711399E-2</v>
+        <v>1.39741531171629E-2</v>
       </c>
       <c r="F40">
         <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B41">
-        <v>0.3787848119969881</v>
+        <v>0.95962985350097518</v>
       </c>
       <c r="C41">
-        <v>8.9211144907945197E-2</v>
+        <v>0.73631427526884163</v>
       </c>
       <c r="D41">
-        <v>1.6082960704925939</v>
+        <v>1.250674456086118</v>
       </c>
       <c r="E41">
-        <v>0.1882155473931415</v>
+        <v>0.76044133810081627</v>
       </c>
       <c r="F41">
         <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42">
-        <v>0.82301818520133707</v>
-      </c>
-      <c r="C42">
-        <v>0.70499252037649918</v>
-      </c>
-      <c r="D42">
-        <v>0.96080300654872319</v>
-      </c>
-      <c r="E42">
-        <v>1.36530308631188E-2</v>
-      </c>
-      <c r="F42">
-        <v>108</v>
-      </c>
-      <c r="G42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43">
-        <v>0.9730398859226812</v>
-      </c>
-      <c r="C43">
-        <v>0.75512178268204511</v>
-      </c>
-      <c r="D43">
-        <v>1.253846255412673</v>
-      </c>
-      <c r="E43">
-        <v>0.8326779875473338</v>
-      </c>
-      <c r="F43">
-        <v>119</v>
-      </c>
-      <c r="G43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44">
-        <v>0.8212828236248837</v>
-      </c>
-      <c r="C44">
-        <v>0.70195424075999979</v>
-      </c>
-      <c r="D44">
-        <v>0.96089664712471923</v>
-      </c>
-      <c r="E44">
-        <v>1.39741531171629E-2</v>
-      </c>
-      <c r="F44">
-        <v>108</v>
-      </c>
-      <c r="G44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45">
-        <v>0.95962985350097518</v>
-      </c>
-      <c r="C45">
-        <v>0.73631427526884163</v>
-      </c>
-      <c r="D45">
-        <v>1.250674456086118</v>
-      </c>
-      <c r="E45">
-        <v>0.76044133810081627</v>
-      </c>
-      <c r="F45">
-        <v>119</v>
-      </c>
-      <c r="G45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B46">
-        <v>0.98480642834085796</v>
-      </c>
-      <c r="C46">
-        <v>0.74079744564126826</v>
-      </c>
-      <c r="D46">
-        <v>1.3091887762409009</v>
-      </c>
-      <c r="E46">
-        <v>0.91606362334803282</v>
-      </c>
-      <c r="F46">
-        <v>108</v>
-      </c>
-      <c r="G46" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47">
-        <v>0.97247762624894218</v>
-      </c>
-      <c r="C47">
-        <v>0.8495559429764693</v>
-      </c>
-      <c r="D47">
-        <v>1.1131847659630481</v>
-      </c>
-      <c r="E47">
-        <v>0.68564010473483883</v>
-      </c>
-      <c r="F47">
-        <v>119</v>
-      </c>
-      <c r="G47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48">
-        <v>1.0723669034742791</v>
-      </c>
-      <c r="C48">
-        <v>0.89354364076174186</v>
-      </c>
-      <c r="D48">
-        <v>1.2869777403224201</v>
-      </c>
-      <c r="E48">
-        <v>0.45286520801192542</v>
-      </c>
-      <c r="F48">
-        <v>108</v>
-      </c>
-      <c r="G48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49">
-        <v>0.98173279005992919</v>
-      </c>
-      <c r="C49">
-        <v>0.85510827428269265</v>
-      </c>
-      <c r="D49">
-        <v>1.1271078763532441</v>
-      </c>
-      <c r="E49">
-        <v>0.79357680244280093</v>
-      </c>
-      <c r="F49">
-        <v>119</v>
-      </c>
-      <c r="G49" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
